--- a/test.xlsx
+++ b/test.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H30" sqref="A1:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="A1:H30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
